--- a/Documents/workspace-spring-tool-suite-4-4.28.0.RELEASE/testing/signindata.xlsx
+++ b/Documents/workspace-spring-tool-suite-4-4.28.0.RELEASE/testing/signindata.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\21000\Documents\workspace-spring-tool-suite-4-4.28.0.RELEASE\testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84793F7F-FE4C-4A72-81C9-F4BA0257E4CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{780480D7-C54E-438A-B978-B84062154030}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Mrs.</t>
   </si>
@@ -44,6 +45,9 @@
   </si>
   <si>
     <t>admin123</t>
+  </si>
+  <si>
+    <t>mobile</t>
   </si>
 </sst>
 </file>
@@ -374,7 +378,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -429,4 +433,22 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B72CB52D-653E-461C-99B6-92AE374B3573}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>